--- a/biology/Botanique/Calepina_irregularis/Calepina_irregularis.xlsx
+++ b/biology/Botanique/Calepina_irregularis/Calepina_irregularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calepina irregularis, nom français calépine ou calépine irrégulière ou calépine de Corvin[2], est une espèce de plantes herbacées annuelle de la famille des Brassicaceae, à petites fleurs blanches.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calepina irregularis, nom français calépine ou calépine irrégulière ou calépine de Corvin, est une espèce de plantes herbacées annuelle de la famille des Brassicaceae, à petites fleurs blanches.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique Calepina a été créé par Michel Adanson et dérive peut-être du grec chalepaino[3], déjà utilisé par le naturaliste grec Théophraste (-371, -288). L'épithète spécifique vient du latin  irregularis « irrégulier » en raison de la différence des feuilles basales et caulinaires.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique Calepina a été créé par Michel Adanson et dérive peut-être du grec chalepaino, déjà utilisé par le naturaliste grec Théophraste (-371, -288). L'épithète spécifique vient du latin  irregularis « irrégulier » en raison de la différence des feuilles basales et caulinaires.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La calépine est une plante annuelle, glabre, légèrement glauque. Ses tiges de 30-60 cm de long, sont étalées à ascendantes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La calépine est une plante annuelle, glabre, légèrement glauque. Ses tiges de 30-60 cm de long, sont étalées à ascendantes.
 Les feuilles basales sont disposées en rosette, lyrées[n 1] ou sinuées. Les feuilles caulinaires (le long de la tige) sont oblongues, entières ou dentées, embrassantes-auriculées.
-Les fleurs blanches sont petites de 2-4 mm. Elles comportent 4 sépales dressées, égaux à la base, et 4 pétales blancs, les 2 extérieurs un peu plus grands[2]. Le style est court, épais et conique. La floraison se déroule d'avril à juin[4].
+Les fleurs blanches sont petites de 2-4 mm. Elles comportent 4 sépales dressées, égaux à la base, et 4 pétales blancs, les 2 extérieurs un peu plus grands. Le style est court, épais et conique. La floraison se déroule d'avril à juin.
 La grappe fructifère est allongée et étroite. Le fruit est une petite silicule, ovoïde-globuleuse, ridée en réseau, indéhiscente, entièrement remplie par 1 graine.
 </t>
         </is>
@@ -576,9 +592,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La calépine croît dans une grande partie de la France : Ouest, Sud-Ouest, et Midi au sens large. Elle s'est naturalisée dans le Bassin parisien, l'Est et le Nord-Est[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La calépine croît dans une grande partie de la France : Ouest, Sud-Ouest, et Midi au sens large. Elle s'est naturalisée dans le Bassin parisien, l'Est et le Nord-Est.
 Elle pousse dans les lieux incultes ou cultivés, dans les friches eutrophiles.
 </t>
         </is>
